--- a/SchedulingData/static4/pso/scheduling1_4.xlsx
+++ b/SchedulingData/static4/pso/scheduling1_4.xlsx
@@ -462,78 +462,78 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>46.22</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>26.568</v>
+        <v>24.96</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>71.54000000000001</v>
+        <v>68.56</v>
       </c>
       <c r="E3" t="n">
-        <v>25.996</v>
+        <v>26.304</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>71.54000000000001</v>
+        <v>68.56</v>
       </c>
       <c r="D4" t="n">
-        <v>136.14</v>
+        <v>121.16</v>
       </c>
       <c r="E4" t="n">
-        <v>20.676</v>
+        <v>22.664</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>55.46</v>
+        <v>86.54000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>25.644</v>
+        <v>25.996</v>
       </c>
     </row>
     <row r="6">
@@ -542,169 +542,169 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>41.76</v>
+        <v>144.5</v>
       </c>
       <c r="E6" t="n">
-        <v>27.504</v>
+        <v>22.32</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>68.90000000000001</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>24.3</v>
+        <v>26.52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>46.22</v>
+        <v>144.5</v>
       </c>
       <c r="D8" t="n">
-        <v>73.42</v>
+        <v>213.9</v>
       </c>
       <c r="E8" t="n">
-        <v>24.488</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>73.42</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>140.02</v>
+        <v>43.1</v>
       </c>
       <c r="E9" t="n">
-        <v>19.448</v>
+        <v>26.88</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>96.12</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>24.568</v>
+        <v>24.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>68.90000000000001</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>156.22</v>
+        <v>166.06</v>
       </c>
       <c r="E11" t="n">
-        <v>20.648</v>
+        <v>21.144</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>136.14</v>
+        <v>166.06</v>
       </c>
       <c r="D12" t="n">
-        <v>196.3</v>
+        <v>210.86</v>
       </c>
       <c r="E12" t="n">
-        <v>15.3</v>
+        <v>18.304</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>140.02</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>197.02</v>
+        <v>134.52</v>
       </c>
       <c r="E13" t="n">
-        <v>15.368</v>
+        <v>18.868</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>96.12</v>
+        <v>134.52</v>
       </c>
       <c r="D14" t="n">
-        <v>162.16</v>
+        <v>177.02</v>
       </c>
       <c r="E14" t="n">
-        <v>21.604</v>
+        <v>15.748</v>
       </c>
     </row>
     <row r="15">
@@ -713,93 +713,93 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>162.16</v>
+        <v>86.54000000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>215.66</v>
+        <v>147.68</v>
       </c>
       <c r="E15" t="n">
-        <v>18.884</v>
+        <v>22.012</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>41.76</v>
+        <v>147.68</v>
       </c>
       <c r="D16" t="n">
-        <v>112.8</v>
+        <v>197.4</v>
       </c>
       <c r="E16" t="n">
-        <v>23.52</v>
+        <v>19.18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>156.22</v>
+        <v>121.16</v>
       </c>
       <c r="D17" t="n">
-        <v>195.84</v>
+        <v>193.58</v>
       </c>
       <c r="E17" t="n">
-        <v>18.316</v>
+        <v>19.012</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>55.46</v>
+        <v>43.1</v>
       </c>
       <c r="D18" t="n">
-        <v>113.52</v>
+        <v>108.06</v>
       </c>
       <c r="E18" t="n">
-        <v>21.948</v>
+        <v>22.524</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>195.84</v>
+        <v>193.58</v>
       </c>
       <c r="D19" t="n">
-        <v>272.94</v>
+        <v>245.02</v>
       </c>
       <c r="E19" t="n">
-        <v>15.196</v>
+        <v>15.508</v>
       </c>
     </row>
     <row r="20">
@@ -808,36 +808,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>113.52</v>
+        <v>210.86</v>
       </c>
       <c r="D20" t="n">
-        <v>189.12</v>
+        <v>267.96</v>
       </c>
       <c r="E20" t="n">
-        <v>17.988</v>
+        <v>15.224</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>272.94</v>
+        <v>197.4</v>
       </c>
       <c r="D21" t="n">
-        <v>322.36</v>
+        <v>273</v>
       </c>
       <c r="E21" t="n">
-        <v>12.364</v>
+        <v>15.22</v>
       </c>
     </row>
     <row r="22">
@@ -846,17 +846,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>112.8</v>
+        <v>213.9</v>
       </c>
       <c r="D22" t="n">
-        <v>152.5</v>
+        <v>271.1</v>
       </c>
       <c r="E22" t="n">
-        <v>20.68</v>
+        <v>12.92</v>
       </c>
     </row>
     <row r="23">
@@ -865,55 +865,55 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>322.36</v>
+        <v>177.02</v>
       </c>
       <c r="D23" t="n">
-        <v>364.86</v>
+        <v>247.96</v>
       </c>
       <c r="E23" t="n">
-        <v>9.244</v>
+        <v>12.784</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>215.66</v>
+        <v>108.06</v>
       </c>
       <c r="D24" t="n">
-        <v>259.58</v>
+        <v>179.06</v>
       </c>
       <c r="E24" t="n">
-        <v>16.112</v>
+        <v>19.004</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>196.3</v>
+        <v>267.96</v>
       </c>
       <c r="D25" t="n">
-        <v>238.4</v>
+        <v>331</v>
       </c>
       <c r="E25" t="n">
-        <v>12.22</v>
+        <v>12.52</v>
       </c>
     </row>
     <row r="26">
@@ -922,55 +922,55 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>152.5</v>
+        <v>271.1</v>
       </c>
       <c r="D26" t="n">
-        <v>201.02</v>
+        <v>322.16</v>
       </c>
       <c r="E26" t="n">
-        <v>16.468</v>
+        <v>10.424</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>197.02</v>
+        <v>179.06</v>
       </c>
       <c r="D27" t="n">
-        <v>264.52</v>
+        <v>242.38</v>
       </c>
       <c r="E27" t="n">
-        <v>11.728</v>
+        <v>14.792</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>201.02</v>
+        <v>247.96</v>
       </c>
       <c r="D28" t="n">
-        <v>267.26</v>
+        <v>290.06</v>
       </c>
       <c r="E28" t="n">
-        <v>12.964</v>
+        <v>10.704</v>
       </c>
     </row>
     <row r="29">
@@ -979,93 +979,93 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>238.4</v>
+        <v>242.38</v>
       </c>
       <c r="D29" t="n">
-        <v>301.44</v>
+        <v>286.3</v>
       </c>
       <c r="E29" t="n">
-        <v>9.516</v>
+        <v>12.02</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>264.52</v>
+        <v>286.3</v>
       </c>
       <c r="D30" t="n">
-        <v>346.82</v>
+        <v>336.82</v>
       </c>
       <c r="E30" t="n">
-        <v>9.087999999999999</v>
+        <v>8.587999999999999</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>301.44</v>
+        <v>273</v>
       </c>
       <c r="D31" t="n">
-        <v>372.14</v>
+        <v>320.6</v>
       </c>
       <c r="E31" t="n">
-        <v>6.036</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>259.58</v>
+        <v>245.02</v>
       </c>
       <c r="D32" t="n">
-        <v>321.88</v>
+        <v>299.64</v>
       </c>
       <c r="E32" t="n">
-        <v>12.992</v>
+        <v>13.176</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>189.12</v>
+        <v>290.06</v>
       </c>
       <c r="D33" t="n">
-        <v>275.02</v>
+        <v>323.66</v>
       </c>
       <c r="E33" t="n">
-        <v>14.468</v>
+        <v>7.984</v>
       </c>
     </row>
   </sheetData>
